--- a/Tabla_buscador_indicadores.xlsx
+++ b/Tabla_buscador_indicadores.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="672">
   <si>
     <t>Indicador</t>
   </si>
@@ -2043,13 +2043,16 @@
   </si>
   <si>
     <t>Nacional</t>
+  </si>
+  <si>
+    <t>Cambio climático1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2352,29 +2355,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="140.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2451,12 +2454,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -2528,7 +2531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -6301,7 +6304,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -6455,7 +6458,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>185</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>188</v>
       </c>
@@ -6840,7 +6843,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>216</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>220</v>
       </c>
@@ -7687,7 +7690,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -7918,7 +7921,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -8072,7 +8075,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -8380,7 +8383,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>216</v>
       </c>
@@ -8534,7 +8537,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>220</v>
       </c>
@@ -8688,7 +8691,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -8842,7 +8845,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>259</v>
       </c>
@@ -8919,7 +8922,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -9150,7 +9153,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -9381,7 +9384,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -9689,7 +9692,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -9843,7 +9846,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -10151,7 +10154,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>304</v>
       </c>
@@ -10228,7 +10231,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -10305,7 +10308,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -10382,7 +10385,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>312</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>315</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -10613,7 +10616,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -10767,7 +10770,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>329</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>334</v>
       </c>
@@ -11152,7 +11155,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>337</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>339</v>
       </c>
@@ -11306,7 +11309,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>342</v>
       </c>
@@ -11383,7 +11386,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>348</v>
       </c>
@@ -11537,7 +11540,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>351</v>
       </c>
@@ -11614,7 +11617,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>354</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>357</v>
       </c>
@@ -11768,7 +11771,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>359</v>
       </c>
@@ -11845,7 +11848,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>362</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>365</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -12076,7 +12079,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>370</v>
       </c>
@@ -12153,7 +12156,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>373</v>
       </c>
@@ -12230,7 +12233,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>375</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>378</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>381</v>
       </c>
@@ -12461,7 +12464,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>383</v>
       </c>
@@ -12538,7 +12541,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>386</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>389</v>
       </c>
@@ -12692,7 +12695,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>392</v>
       </c>
@@ -12769,7 +12772,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>396</v>
       </c>
@@ -12846,7 +12849,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>399</v>
       </c>
@@ -12923,7 +12926,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>401</v>
       </c>
@@ -13000,7 +13003,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -13077,7 +13080,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>407</v>
       </c>
@@ -13154,7 +13157,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>409</v>
       </c>
@@ -13231,7 +13234,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>412</v>
       </c>
@@ -13308,7 +13311,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>415</v>
       </c>
@@ -13385,7 +13388,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>418</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>421</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>424</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>426</v>
       </c>
@@ -13693,7 +13696,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>430</v>
       </c>
@@ -13770,7 +13773,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>432</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>435</v>
       </c>
@@ -13924,7 +13927,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>437</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>440</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>445</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -14309,7 +14312,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>450</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>453</v>
       </c>
@@ -14463,7 +14466,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -14540,7 +14543,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -14617,7 +14620,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -14694,7 +14697,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -14771,7 +14774,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>463</v>
       </c>
@@ -14848,7 +14851,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>466</v>
       </c>
@@ -14925,7 +14928,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -15002,7 +15005,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>471</v>
       </c>
@@ -15079,7 +15082,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>216</v>
       </c>
@@ -15156,7 +15159,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>211</v>
       </c>
@@ -15233,7 +15236,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -15310,7 +15313,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>477</v>
       </c>
@@ -15387,7 +15390,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>480</v>
       </c>
@@ -15464,7 +15467,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>483</v>
       </c>
@@ -15541,7 +15544,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>487</v>
       </c>
@@ -15618,7 +15621,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>284</v>
       </c>
@@ -15695,7 +15698,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>289</v>
       </c>
@@ -15772,7 +15775,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>291</v>
       </c>
@@ -15849,7 +15852,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>294</v>
       </c>
@@ -15926,7 +15929,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>297</v>
       </c>
@@ -16003,7 +16006,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>497</v>
       </c>
@@ -16080,7 +16083,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>302</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>501</v>
       </c>
@@ -16234,7 +16237,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>505</v>
       </c>
@@ -16311,7 +16314,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>508</v>
       </c>
@@ -16388,7 +16391,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -16465,7 +16468,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>514</v>
       </c>
@@ -16542,7 +16545,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>517</v>
       </c>
@@ -16619,7 +16622,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>520</v>
       </c>
@@ -16696,7 +16699,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>523</v>
       </c>
@@ -16773,7 +16776,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>525</v>
       </c>
@@ -16850,7 +16853,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>528</v>
       </c>
@@ -16927,7 +16930,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -17004,7 +17007,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -17081,7 +17084,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>534</v>
       </c>
@@ -17158,7 +17161,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>538</v>
       </c>
@@ -17235,7 +17238,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>541</v>
       </c>
@@ -17312,7 +17315,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>543</v>
       </c>
@@ -17389,7 +17392,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>546</v>
       </c>
@@ -17466,7 +17469,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>548</v>
       </c>
@@ -17543,7 +17546,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="198" spans="1:25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>551</v>
       </c>
@@ -17620,7 +17623,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="199" spans="1:25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>554</v>
       </c>
@@ -17697,7 +17700,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="200" spans="1:25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>556</v>
       </c>
@@ -17774,7 +17777,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="201" spans="1:25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>559</v>
       </c>
@@ -17851,7 +17854,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="202" spans="1:25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>561</v>
       </c>
@@ -17928,7 +17931,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="203" spans="1:25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>564</v>
       </c>
@@ -18005,7 +18008,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="204" spans="1:25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>567</v>
       </c>
@@ -18082,7 +18085,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="205" spans="1:25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>570</v>
       </c>
@@ -18159,7 +18162,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="206" spans="1:25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>572</v>
       </c>
@@ -18236,7 +18239,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="207" spans="1:25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>575</v>
       </c>
@@ -18313,7 +18316,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="208" spans="1:25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>578</v>
       </c>
@@ -18390,7 +18393,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="209" spans="1:25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>581</v>
       </c>
@@ -18467,7 +18470,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="1:25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>584</v>
       </c>
@@ -18544,7 +18547,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>587</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="212" spans="1:25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>590</v>
       </c>
@@ -18698,7 +18701,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="213" spans="1:25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>592</v>
       </c>
@@ -18775,7 +18778,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="214" spans="1:25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>595</v>
       </c>
@@ -18852,7 +18855,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="215" spans="1:25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>597</v>
       </c>
@@ -18929,7 +18932,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="216" spans="1:25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>600</v>
       </c>
@@ -19006,7 +19009,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="217" spans="1:25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>602</v>
       </c>
@@ -19083,7 +19086,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="218" spans="1:25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>520</v>
       </c>
@@ -19160,7 +19163,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="1:25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>523</v>
       </c>
@@ -19237,7 +19240,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="220" spans="1:25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>528</v>
       </c>
@@ -19314,7 +19317,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="221" spans="1:25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>611</v>
       </c>
@@ -19391,7 +19394,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="222" spans="1:25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>614</v>
       </c>
@@ -19468,7 +19471,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="223" spans="1:25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>617</v>
       </c>
@@ -19545,7 +19548,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="224" spans="1:25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>619</v>
       </c>
@@ -19622,7 +19625,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="225" spans="1:25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>622</v>
       </c>
